--- a/biology/Botanique/Larryleachia/Larryleachia.xlsx
+++ b/biology/Botanique/Larryleachia/Larryleachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larryleachia est un genre de plantes succulentes de la sous tribu des Stapeliinae, dans la famille des Apocynaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'Illustrated Handbook of Succulent Plants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l'Illustrated Handbook of Succulent Plants :
 Larryleachia cactiformis (Hooker) Plowes
 Larryleachia marlothii (N.E. Brown) Plowes
 Larryleachia perlata (Dinter) Plowes
@@ -547,10 +561,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Darrel C.H. Plowes et publié dans son Dictionnaire des Sciences Naturelles (Deuxième édition) 17 : 5. 1996[3].
-Des études phylogénétiques ont montré que ce genre était monophylétique et très étroitement lié aux genres Richtersveldtia et Notechidnopsis. Une branche sœur de genres apparentés, dont Lavrania et Hoodia, est légèrement plus éloignée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Darrel C.H. Plowes et publié dans son Dictionnaire des Sciences Naturelles (Deuxième édition) 17 : 5. 1996.
+Des études phylogénétiques ont montré que ce genre était monophylétique et très étroitement lié aux genres Richtersveldtia et Notechidnopsis. Une branche sœur de genres apparentés, dont Lavrania et Hoodia, est légèrement plus éloignée.
 </t>
         </is>
       </c>
